--- a/Question_Set2/Role-specific skills/Ecommerce Analytics.xlsx
+++ b/Question_Set2/Role-specific skills/Ecommerce Analytics.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a marketing specialist for an e-store. The head of marketing asks you to identify the age of the current core audience of the shop. You see that 36% of the buyers are 18-24 years old, 30% are 25-34 years old, 14% are 35-44 years old, 10% are 45+ years old, and 10% are of unknown age. What is the core audience?', 'ques_type': 2, 'options': ['18-24 years old', '18-34 years old', '18-44 years old', 'All 18+ years old'], 'score': '18-34 years old'}, {'title': 'As an analyst in an e-store, you are responsible for providing data to web designers for them to improve the e-commerce platform. During the last check, you saw that the products the web designers added recently don’t have titles, descriptions, and H1-H3 subtitles on their pages.  What would you ask your colleagues to double-check and fill in?', 'ques_type': 2, 'options': ['Microdata', 'Robot.txt', 'Metadata', 'Sitemap'], 'score': 'Metadata'}, {'title': 'You are an analyst for a sporting goods e-store. Your colleagues from the marketing department have asked you to review the seasonality in order for them to plan marketing campaigns for the next year. The main goal is awareness among a new audience. You see that the peak organic search traffic is in February to March and the peak sales are in April to May. You also know that there is a budget for only two months of promotion. When would you recommend planning marketing activities?', 'ques_type': 2, 'options': ['February to March', 'March to April', 'April to May', 'May to June'], 'score': 'February to March'}, {'title': 'As the marketing manager for an e-commerce company, you try to optimize the traffic channels you use in your marketing activities. Analyzing the data for the previous month, you see the following:Organic search: 20K users, 1% conversion ratePaid search: 10K users, 1.5% conversion rateSocial media: 3K users, 1% conversion rateEmail: 4K users, 4% conversion rateReferral links: 7K users, 0.7% conversion rate Which traffic channel should you optimize first?', 'ques_type': 2, 'options': ['Social media', 'Paid search', 'Referral links', 'Email'], 'score': 'Referral links'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a marketing specialist for an e-store. The head of marketing asks you to identify the age of the current core audience of the shop. You see that 36% of the buyers are 18-24 years old, 30% are 25-34 years old, 14% are 35-44 years old, 10% are 45+ years old, and 10% are of unknown age. What is the core audience?",
+        "ques_type": 2,
+        "options": [
+            "18-24 years old",
+            "18-34 years old",
+            "18-44 years old",
+            "All 18+ years old"
+        ],
+        "score": "18-34 years old"
+    },
+    {
+        "title": "As an analyst in an e-store, you are responsible for providing data to web designers for them to improve the e-commerce platform. During the last check, you saw that the products the web designers added recently don\u2019t have titles, descriptions, and H1-H3 subtitles on their pages.  What would you ask your colleagues to double-check and fill in?",
+        "ques_type": 2,
+        "options": [
+            "Microdata",
+            "Robot.txt",
+            "Metadata",
+            "Sitemap"
+        ],
+        "score": "Metadata"
+    },
+    {
+        "title": "You are an analyst for a sporting goods e-store. Your colleagues from the marketing department have asked you to review the seasonality in order for them to plan marketing campaigns for the next year. The main goal is awareness among a new audience. You see that the peak organic search traffic is in February to March and the peak sales are in April to May. You also know that there is a budget for only two months of promotion. When would you recommend planning marketing activities?",
+        "ques_type": 2,
+        "options": [
+            "February to March",
+            "March to April",
+            "April to May",
+            "May to June"
+        ],
+        "score": "February to March"
+    },
+    {
+        "title": "As the marketing manager for an e-commerce company, you try to optimize the traffic channels you use in your marketing activities. Analyzing the data for the previous month, you see the following:Organic search: 20K users, 1% conversion ratePaid search: 10K users, 1.5% conversion rateSocial media: 3K users, 1% conversion rateEmail: 4K users, 4% conversion rateReferral links: 7K users, 0.7% conversion rate Which traffic channel should you optimize first?",
+        "ques_type": 2,
+        "options": [
+            "Social media",
+            "Paid search",
+            "Referral links",
+            "Email"
+        ],
+        "score": "Referral links"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
